--- a/result/delicious/deliciousMD统计结果.xlsx
+++ b/result/delicious/deliciousMD统计结果.xlsx
@@ -8,25 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\researcher\recomendersystem\code\trendrec\result\delicious\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8250DDA-FAAC-46E4-9D71-CD9CFA063CD8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC819741-A1DB-48E7-B450-541D05BAEC32}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F6016DE1-1C47-4DE2-A3F5-ABB757F11A12}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$1:$A$21</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$1:$B$21</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$C$1:$C$21</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$D$1:$D$21</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$E$1:$E$21</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$F$1:$F$21</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$G$1:$G$21</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$H$1:$H$21</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$I$1:$I$21</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$J$1:$J$21</definedName>
-  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -2776,10 +2764,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FBB8EBA-1515-410B-A3AF-BEACEE51983F}">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:U53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S15" sqref="S15"/>
+      <selection activeCell="A31" sqref="A31:XFD31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3296,7 +3284,7 @@
         <v>-7.7680601000000002E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>0.6</v>
       </c>
@@ -3328,7 +3316,7 @@
         <v>-7.5767010999999995E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>0.7</v>
       </c>
@@ -3360,7 +3348,7 @@
         <v>-7.3693596E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>0.8</v>
       </c>
@@ -3392,7 +3380,7 @@
         <v>-7.1573533999999994E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>0.9</v>
       </c>
@@ -3424,7 +3412,7 @@
         <v>-6.9422590000000006E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1</v>
       </c>
@@ -3453,12 +3441,1509 @@
         <v>-3.1614317000000003E-2</v>
       </c>
       <c r="J21">
+        <v>-6.7220142999999996E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>3.5037643E-2</v>
+      </c>
+      <c r="B31">
+        <v>3.2721010000000002E-2</v>
+      </c>
+      <c r="C31">
+        <v>2.9895201999999999E-2</v>
+      </c>
+      <c r="D31">
+        <v>2.6388857000000002E-2</v>
+      </c>
+      <c r="E31">
+        <v>2.194693E-2</v>
+      </c>
+      <c r="F31">
+        <v>1.6186967E-2</v>
+      </c>
+      <c r="G31">
+        <v>8.5434229999999996E-3</v>
+      </c>
+      <c r="H31">
+        <v>-1.7636360000000001E-3</v>
+      </c>
+      <c r="I31">
+        <v>-1.5574367E-2</v>
+      </c>
+      <c r="J31">
+        <v>-3.3014723000000003E-2</v>
+      </c>
+      <c r="K31">
+        <v>-5.1850800000000002E-2</v>
+      </c>
+      <c r="L31">
+        <v>-6.7267157999999994E-2</v>
+      </c>
+      <c r="M31">
+        <v>-7.6027064000000005E-2</v>
+      </c>
+      <c r="N31">
+        <v>-7.9126097000000006E-2</v>
+      </c>
+      <c r="O31">
+        <v>-7.9087157000000005E-2</v>
+      </c>
+      <c r="P31">
+        <v>-7.7680601000000002E-2</v>
+      </c>
+      <c r="Q31">
+        <v>-7.5767010999999995E-2</v>
+      </c>
+      <c r="R31">
+        <v>-7.3693596E-2</v>
+      </c>
+      <c r="S31">
+        <v>-7.1573533999999994E-2</v>
+      </c>
+      <c r="T31">
+        <v>-6.9422590000000006E-2</v>
+      </c>
+      <c r="U31">
+        <v>-6.7220142999999996E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>3.5037643E-2</v>
+      </c>
+      <c r="B32">
+        <v>3.2721010000000002E-2</v>
+      </c>
+      <c r="C32">
+        <v>2.9895201999999999E-2</v>
+      </c>
+      <c r="D32">
+        <v>2.6388857000000002E-2</v>
+      </c>
+      <c r="E32">
+        <v>2.194693E-2</v>
+      </c>
+      <c r="F32">
+        <v>1.6186967E-2</v>
+      </c>
+      <c r="G32">
+        <v>8.5434229999999996E-3</v>
+      </c>
+      <c r="H32">
+        <v>-1.7636360000000001E-3</v>
+      </c>
+      <c r="I32">
+        <v>-1.5574367E-2</v>
+      </c>
+      <c r="J32">
+        <v>-3.3014723000000003E-2</v>
+      </c>
+      <c r="K32">
+        <v>-5.1850800000000002E-2</v>
+      </c>
+      <c r="L32">
+        <v>-6.7267157999999994E-2</v>
+      </c>
+      <c r="M32">
+        <v>-7.6027064000000005E-2</v>
+      </c>
+      <c r="N32">
+        <v>-7.9126097000000006E-2</v>
+      </c>
+      <c r="O32">
+        <v>-7.9087157000000005E-2</v>
+      </c>
+      <c r="P32">
+        <v>-7.7680601000000002E-2</v>
+      </c>
+      <c r="Q32">
+        <v>-7.5767010999999995E-2</v>
+      </c>
+      <c r="R32">
+        <v>-7.3693596E-2</v>
+      </c>
+      <c r="S32">
+        <v>-7.1573533999999994E-2</v>
+      </c>
+      <c r="T32">
+        <v>-6.9422590000000006E-2</v>
+      </c>
+      <c r="U32">
+        <v>-6.7220142999999996E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>3.5037643E-2</v>
+      </c>
+      <c r="B33">
+        <v>3.2721010000000002E-2</v>
+      </c>
+      <c r="C33">
+        <v>2.9895201999999999E-2</v>
+      </c>
+      <c r="D33">
+        <v>2.6388857000000002E-2</v>
+      </c>
+      <c r="E33">
+        <v>2.194693E-2</v>
+      </c>
+      <c r="F33">
+        <v>1.6186967E-2</v>
+      </c>
+      <c r="G33">
+        <v>8.5434229999999996E-3</v>
+      </c>
+      <c r="H33">
+        <v>-1.7636360000000001E-3</v>
+      </c>
+      <c r="I33">
+        <v>-1.5574367E-2</v>
+      </c>
+      <c r="J33">
+        <v>-3.3014723000000003E-2</v>
+      </c>
+      <c r="K33">
+        <v>-5.1850800000000002E-2</v>
+      </c>
+      <c r="L33">
+        <v>-6.7267157999999994E-2</v>
+      </c>
+      <c r="M33">
+        <v>-7.6027064000000005E-2</v>
+      </c>
+      <c r="N33">
+        <v>-7.9126097000000006E-2</v>
+      </c>
+      <c r="O33">
+        <v>-7.9087157000000005E-2</v>
+      </c>
+      <c r="P33">
+        <v>-7.7680601000000002E-2</v>
+      </c>
+      <c r="Q33">
+        <v>-7.5767010999999995E-2</v>
+      </c>
+      <c r="R33">
+        <v>-7.3693596E-2</v>
+      </c>
+      <c r="S33">
+        <v>-7.1573533999999994E-2</v>
+      </c>
+      <c r="T33">
+        <v>-6.9422590000000006E-2</v>
+      </c>
+      <c r="U33">
+        <v>-6.7220142999999996E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>3.5037643E-2</v>
+      </c>
+      <c r="B34">
+        <v>3.2721010000000002E-2</v>
+      </c>
+      <c r="C34">
+        <v>2.9895201999999999E-2</v>
+      </c>
+      <c r="D34">
+        <v>2.6388857000000002E-2</v>
+      </c>
+      <c r="E34">
+        <v>2.194693E-2</v>
+      </c>
+      <c r="F34">
+        <v>1.6186967E-2</v>
+      </c>
+      <c r="G34">
+        <v>8.5434229999999996E-3</v>
+      </c>
+      <c r="H34">
+        <v>-1.7636360000000001E-3</v>
+      </c>
+      <c r="I34">
+        <v>-1.5574367E-2</v>
+      </c>
+      <c r="J34">
+        <v>-3.3014723000000003E-2</v>
+      </c>
+      <c r="K34">
+        <v>-5.1850800000000002E-2</v>
+      </c>
+      <c r="L34">
+        <v>-6.7267157999999994E-2</v>
+      </c>
+      <c r="M34">
+        <v>-7.6027064000000005E-2</v>
+      </c>
+      <c r="N34">
+        <v>-7.9126097000000006E-2</v>
+      </c>
+      <c r="O34">
+        <v>-7.9087157000000005E-2</v>
+      </c>
+      <c r="P34">
+        <v>-7.7680601000000002E-2</v>
+      </c>
+      <c r="Q34">
+        <v>-7.5767010999999995E-2</v>
+      </c>
+      <c r="R34">
+        <v>-7.3693596E-2</v>
+      </c>
+      <c r="S34">
+        <v>-7.1573533999999994E-2</v>
+      </c>
+      <c r="T34">
+        <v>-6.9422590000000006E-2</v>
+      </c>
+      <c r="U34">
+        <v>-6.7220142999999996E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>3.5037643E-2</v>
+      </c>
+      <c r="B35">
+        <v>3.2721010000000002E-2</v>
+      </c>
+      <c r="C35">
+        <v>2.9895201999999999E-2</v>
+      </c>
+      <c r="D35">
+        <v>2.6388857000000002E-2</v>
+      </c>
+      <c r="E35">
+        <v>2.194693E-2</v>
+      </c>
+      <c r="F35">
+        <v>1.6186967E-2</v>
+      </c>
+      <c r="G35">
+        <v>8.5434229999999996E-3</v>
+      </c>
+      <c r="H35">
+        <v>-1.7636360000000001E-3</v>
+      </c>
+      <c r="I35">
+        <v>-1.5574367E-2</v>
+      </c>
+      <c r="J35">
+        <v>-3.3014723000000003E-2</v>
+      </c>
+      <c r="K35">
+        <v>-5.1850800000000002E-2</v>
+      </c>
+      <c r="L35">
+        <v>-6.7267157999999994E-2</v>
+      </c>
+      <c r="M35">
+        <v>-7.6027064000000005E-2</v>
+      </c>
+      <c r="N35">
+        <v>-7.9126097000000006E-2</v>
+      </c>
+      <c r="O35">
+        <v>-7.9087157000000005E-2</v>
+      </c>
+      <c r="P35">
+        <v>-7.7680601000000002E-2</v>
+      </c>
+      <c r="Q35">
+        <v>-7.5767010999999995E-2</v>
+      </c>
+      <c r="R35">
+        <v>-7.3693596E-2</v>
+      </c>
+      <c r="S35">
+        <v>-7.1573533999999994E-2</v>
+      </c>
+      <c r="T35">
+        <v>-6.9422590000000006E-2</v>
+      </c>
+      <c r="U35">
+        <v>-6.7220142999999996E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>3.5037643E-2</v>
+      </c>
+      <c r="B36">
+        <v>3.2721010000000002E-2</v>
+      </c>
+      <c r="C36">
+        <v>2.9895201999999999E-2</v>
+      </c>
+      <c r="D36">
+        <v>2.6388857000000002E-2</v>
+      </c>
+      <c r="E36">
+        <v>2.194693E-2</v>
+      </c>
+      <c r="F36">
+        <v>1.6186967E-2</v>
+      </c>
+      <c r="G36">
+        <v>8.5434229999999996E-3</v>
+      </c>
+      <c r="H36">
+        <v>-1.7636360000000001E-3</v>
+      </c>
+      <c r="I36">
+        <v>-1.5574367E-2</v>
+      </c>
+      <c r="J36">
+        <v>-3.3014723000000003E-2</v>
+      </c>
+      <c r="K36">
+        <v>-5.1850800000000002E-2</v>
+      </c>
+      <c r="L36">
+        <v>-6.7267157999999994E-2</v>
+      </c>
+      <c r="M36">
+        <v>-7.6027064000000005E-2</v>
+      </c>
+      <c r="N36">
+        <v>-7.9126097000000006E-2</v>
+      </c>
+      <c r="O36">
+        <v>-7.9087157000000005E-2</v>
+      </c>
+      <c r="P36">
+        <v>-7.7680601000000002E-2</v>
+      </c>
+      <c r="Q36">
+        <v>-7.5767010999999995E-2</v>
+      </c>
+      <c r="R36">
+        <v>-7.3693596E-2</v>
+      </c>
+      <c r="S36">
+        <v>-7.1573533999999994E-2</v>
+      </c>
+      <c r="T36">
+        <v>-6.9422590000000006E-2</v>
+      </c>
+      <c r="U36">
+        <v>-6.7220142999999996E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>3.5037643E-2</v>
+      </c>
+      <c r="B37">
+        <v>3.2721010000000002E-2</v>
+      </c>
+      <c r="C37">
+        <v>2.9895201999999999E-2</v>
+      </c>
+      <c r="D37">
+        <v>2.6388857000000002E-2</v>
+      </c>
+      <c r="E37">
+        <v>2.194693E-2</v>
+      </c>
+      <c r="F37">
+        <v>1.6186967E-2</v>
+      </c>
+      <c r="G37">
+        <v>8.5434229999999996E-3</v>
+      </c>
+      <c r="H37">
+        <v>-1.7636360000000001E-3</v>
+      </c>
+      <c r="I37">
+        <v>-1.5574367E-2</v>
+      </c>
+      <c r="J37">
+        <v>-3.3014723000000003E-2</v>
+      </c>
+      <c r="K37">
+        <v>-5.1850800000000002E-2</v>
+      </c>
+      <c r="L37">
+        <v>-6.7267157999999994E-2</v>
+      </c>
+      <c r="M37">
+        <v>-7.6027064000000005E-2</v>
+      </c>
+      <c r="N37">
+        <v>-7.9126097000000006E-2</v>
+      </c>
+      <c r="O37">
+        <v>-7.9087157000000005E-2</v>
+      </c>
+      <c r="P37">
+        <v>-7.7680601000000002E-2</v>
+      </c>
+      <c r="Q37">
+        <v>-7.5767010999999995E-2</v>
+      </c>
+      <c r="R37">
+        <v>-7.3693596E-2</v>
+      </c>
+      <c r="S37">
+        <v>-7.1573533999999994E-2</v>
+      </c>
+      <c r="T37">
+        <v>-6.9422590000000006E-2</v>
+      </c>
+      <c r="U37">
+        <v>-6.7220142999999996E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>3.5037643E-2</v>
+      </c>
+      <c r="B38">
+        <v>3.2721010000000002E-2</v>
+      </c>
+      <c r="C38">
+        <v>2.9895201999999999E-2</v>
+      </c>
+      <c r="D38">
+        <v>2.6388857000000002E-2</v>
+      </c>
+      <c r="E38">
+        <v>2.194693E-2</v>
+      </c>
+      <c r="F38">
+        <v>1.6186967E-2</v>
+      </c>
+      <c r="G38">
+        <v>8.5434229999999996E-3</v>
+      </c>
+      <c r="H38">
+        <v>-1.7636360000000001E-3</v>
+      </c>
+      <c r="I38">
+        <v>-1.5574367E-2</v>
+      </c>
+      <c r="J38">
+        <v>-3.3014723000000003E-2</v>
+      </c>
+      <c r="K38">
+        <v>-5.1850800000000002E-2</v>
+      </c>
+      <c r="L38">
+        <v>-6.7267157999999994E-2</v>
+      </c>
+      <c r="M38">
+        <v>-7.6027064000000005E-2</v>
+      </c>
+      <c r="N38">
+        <v>-7.9126097000000006E-2</v>
+      </c>
+      <c r="O38">
+        <v>-7.9087157000000005E-2</v>
+      </c>
+      <c r="P38">
+        <v>-7.7680601000000002E-2</v>
+      </c>
+      <c r="Q38">
+        <v>-7.5767010999999995E-2</v>
+      </c>
+      <c r="R38">
+        <v>-7.3693596E-2</v>
+      </c>
+      <c r="S38">
+        <v>-7.1573533999999994E-2</v>
+      </c>
+      <c r="T38">
+        <v>-6.9422590000000006E-2</v>
+      </c>
+      <c r="U38">
+        <v>-6.7220142999999996E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>3.5037643E-2</v>
+      </c>
+      <c r="B39">
+        <v>3.2721010000000002E-2</v>
+      </c>
+      <c r="C39">
+        <v>2.9895201999999999E-2</v>
+      </c>
+      <c r="D39">
+        <v>2.6388857000000002E-2</v>
+      </c>
+      <c r="E39">
+        <v>2.194693E-2</v>
+      </c>
+      <c r="F39">
+        <v>1.6186967E-2</v>
+      </c>
+      <c r="G39">
+        <v>8.5434229999999996E-3</v>
+      </c>
+      <c r="H39">
+        <v>-1.7636360000000001E-3</v>
+      </c>
+      <c r="I39">
+        <v>-1.5574367E-2</v>
+      </c>
+      <c r="J39">
+        <v>-3.3014723000000003E-2</v>
+      </c>
+      <c r="K39">
+        <v>-5.1850800000000002E-2</v>
+      </c>
+      <c r="L39">
+        <v>-6.7267157999999994E-2</v>
+      </c>
+      <c r="M39">
+        <v>-7.6027064000000005E-2</v>
+      </c>
+      <c r="N39">
+        <v>-7.9126097000000006E-2</v>
+      </c>
+      <c r="O39">
+        <v>-7.9087157000000005E-2</v>
+      </c>
+      <c r="P39">
+        <v>-7.7680601000000002E-2</v>
+      </c>
+      <c r="Q39">
+        <v>-7.5767010999999995E-2</v>
+      </c>
+      <c r="R39">
+        <v>-7.3693596E-2</v>
+      </c>
+      <c r="S39">
+        <v>-7.1573533999999994E-2</v>
+      </c>
+      <c r="T39">
+        <v>-6.9422590000000006E-2</v>
+      </c>
+      <c r="U39">
+        <v>-6.7220142999999996E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>3.5037643E-2</v>
+      </c>
+      <c r="B40">
+        <v>3.2721010000000002E-2</v>
+      </c>
+      <c r="C40">
+        <v>2.9895201999999999E-2</v>
+      </c>
+      <c r="D40">
+        <v>2.6388857000000002E-2</v>
+      </c>
+      <c r="E40">
+        <v>2.194693E-2</v>
+      </c>
+      <c r="F40">
+        <v>1.6186967E-2</v>
+      </c>
+      <c r="G40">
+        <v>8.5434229999999996E-3</v>
+      </c>
+      <c r="H40">
+        <v>-1.7636360000000001E-3</v>
+      </c>
+      <c r="I40">
+        <v>-1.5574367E-2</v>
+      </c>
+      <c r="J40">
+        <v>-3.3014723000000003E-2</v>
+      </c>
+      <c r="K40">
+        <v>-5.1850800000000002E-2</v>
+      </c>
+      <c r="L40">
+        <v>-6.7267157999999994E-2</v>
+      </c>
+      <c r="M40">
+        <v>-7.6027064000000005E-2</v>
+      </c>
+      <c r="N40">
+        <v>-7.9126097000000006E-2</v>
+      </c>
+      <c r="O40">
+        <v>-7.9087157000000005E-2</v>
+      </c>
+      <c r="P40">
+        <v>-7.7680601000000002E-2</v>
+      </c>
+      <c r="Q40">
+        <v>-7.5767010999999995E-2</v>
+      </c>
+      <c r="R40">
+        <v>-7.3693596E-2</v>
+      </c>
+      <c r="S40">
+        <v>-7.1573533999999994E-2</v>
+      </c>
+      <c r="T40">
+        <v>-6.9422590000000006E-2</v>
+      </c>
+      <c r="U40">
+        <v>-6.7220142999999996E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>3.5037643E-2</v>
+      </c>
+      <c r="B41">
+        <v>3.2721010000000002E-2</v>
+      </c>
+      <c r="C41">
+        <v>2.9895201999999999E-2</v>
+      </c>
+      <c r="D41">
+        <v>2.6388857000000002E-2</v>
+      </c>
+      <c r="E41">
+        <v>2.194693E-2</v>
+      </c>
+      <c r="F41">
+        <v>1.6186967E-2</v>
+      </c>
+      <c r="G41">
+        <v>8.5434229999999996E-3</v>
+      </c>
+      <c r="H41">
+        <v>-1.7636360000000001E-3</v>
+      </c>
+      <c r="I41">
+        <v>-1.5574367E-2</v>
+      </c>
+      <c r="J41">
+        <v>-3.3014723000000003E-2</v>
+      </c>
+      <c r="K41">
+        <v>-5.1850800000000002E-2</v>
+      </c>
+      <c r="L41">
+        <v>-6.7267157999999994E-2</v>
+      </c>
+      <c r="M41">
+        <v>-7.6027064000000005E-2</v>
+      </c>
+      <c r="N41">
+        <v>-7.9126097000000006E-2</v>
+      </c>
+      <c r="O41">
+        <v>-7.9087157000000005E-2</v>
+      </c>
+      <c r="P41">
+        <v>-7.7680601000000002E-2</v>
+      </c>
+      <c r="Q41">
+        <v>-7.5767010999999995E-2</v>
+      </c>
+      <c r="R41">
+        <v>-7.3693596E-2</v>
+      </c>
+      <c r="S41">
+        <v>-7.1573533999999994E-2</v>
+      </c>
+      <c r="T41">
+        <v>-6.9422590000000006E-2</v>
+      </c>
+      <c r="U41">
+        <v>-6.7220142999999996E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>3.5037643E-2</v>
+      </c>
+      <c r="B42">
+        <v>3.2721010000000002E-2</v>
+      </c>
+      <c r="C42">
+        <v>2.9895201999999999E-2</v>
+      </c>
+      <c r="D42">
+        <v>2.6388857000000002E-2</v>
+      </c>
+      <c r="E42">
+        <v>2.194693E-2</v>
+      </c>
+      <c r="F42">
+        <v>1.6186967E-2</v>
+      </c>
+      <c r="G42">
+        <v>8.5434229999999996E-3</v>
+      </c>
+      <c r="H42">
+        <v>-1.7636360000000001E-3</v>
+      </c>
+      <c r="I42">
+        <v>-1.5574367E-2</v>
+      </c>
+      <c r="J42">
+        <v>-3.3014723000000003E-2</v>
+      </c>
+      <c r="K42">
+        <v>-5.1850800000000002E-2</v>
+      </c>
+      <c r="L42">
+        <v>-6.7267157999999994E-2</v>
+      </c>
+      <c r="M42">
+        <v>-7.6027064000000005E-2</v>
+      </c>
+      <c r="N42">
+        <v>-7.9126097000000006E-2</v>
+      </c>
+      <c r="O42">
+        <v>-7.9087157000000005E-2</v>
+      </c>
+      <c r="P42">
+        <v>-7.7680601000000002E-2</v>
+      </c>
+      <c r="Q42">
+        <v>-7.5767010999999995E-2</v>
+      </c>
+      <c r="R42">
+        <v>-7.3693596E-2</v>
+      </c>
+      <c r="S42">
+        <v>-7.1573533999999994E-2</v>
+      </c>
+      <c r="T42">
+        <v>-6.9422590000000006E-2</v>
+      </c>
+      <c r="U42">
+        <v>-6.7220142999999996E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>3.5037643E-2</v>
+      </c>
+      <c r="B43">
+        <v>3.2721010000000002E-2</v>
+      </c>
+      <c r="C43">
+        <v>2.9895201999999999E-2</v>
+      </c>
+      <c r="D43">
+        <v>2.6388857000000002E-2</v>
+      </c>
+      <c r="E43">
+        <v>2.194693E-2</v>
+      </c>
+      <c r="F43">
+        <v>1.6186967E-2</v>
+      </c>
+      <c r="G43">
+        <v>8.5434229999999996E-3</v>
+      </c>
+      <c r="H43">
+        <v>-1.7636360000000001E-3</v>
+      </c>
+      <c r="I43">
+        <v>-1.5574367E-2</v>
+      </c>
+      <c r="J43">
+        <v>-3.3014723000000003E-2</v>
+      </c>
+      <c r="K43">
+        <v>-5.1850800000000002E-2</v>
+      </c>
+      <c r="L43">
+        <v>-6.7267157999999994E-2</v>
+      </c>
+      <c r="M43">
+        <v>-7.6027064000000005E-2</v>
+      </c>
+      <c r="N43">
+        <v>-7.9126097000000006E-2</v>
+      </c>
+      <c r="O43">
+        <v>-7.9087157000000005E-2</v>
+      </c>
+      <c r="P43">
+        <v>-7.7680601000000002E-2</v>
+      </c>
+      <c r="Q43">
+        <v>-7.5767010999999995E-2</v>
+      </c>
+      <c r="R43">
+        <v>-7.3693596E-2</v>
+      </c>
+      <c r="S43">
+        <v>-7.1573533999999994E-2</v>
+      </c>
+      <c r="T43">
+        <v>-6.9422590000000006E-2</v>
+      </c>
+      <c r="U43">
+        <v>-6.7220142999999996E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>3.5037643E-2</v>
+      </c>
+      <c r="B44">
+        <v>3.2721010000000002E-2</v>
+      </c>
+      <c r="C44">
+        <v>2.9895201999999999E-2</v>
+      </c>
+      <c r="D44">
+        <v>2.6388857000000002E-2</v>
+      </c>
+      <c r="E44">
+        <v>2.194693E-2</v>
+      </c>
+      <c r="F44">
+        <v>1.6186967E-2</v>
+      </c>
+      <c r="G44">
+        <v>8.5434229999999996E-3</v>
+      </c>
+      <c r="H44">
+        <v>-1.7636360000000001E-3</v>
+      </c>
+      <c r="I44">
+        <v>-1.5574367E-2</v>
+      </c>
+      <c r="J44">
+        <v>-3.3014723000000003E-2</v>
+      </c>
+      <c r="K44">
+        <v>-5.1850800000000002E-2</v>
+      </c>
+      <c r="L44">
+        <v>-6.7267157999999994E-2</v>
+      </c>
+      <c r="M44">
+        <v>-7.6027064000000005E-2</v>
+      </c>
+      <c r="N44">
+        <v>-7.9126097000000006E-2</v>
+      </c>
+      <c r="O44">
+        <v>-7.9087157000000005E-2</v>
+      </c>
+      <c r="P44">
+        <v>-7.7680601000000002E-2</v>
+      </c>
+      <c r="Q44">
+        <v>-7.5767010999999995E-2</v>
+      </c>
+      <c r="R44">
+        <v>-7.3693596E-2</v>
+      </c>
+      <c r="S44">
+        <v>-7.1573533999999994E-2</v>
+      </c>
+      <c r="T44">
+        <v>-6.9422590000000006E-2</v>
+      </c>
+      <c r="U44">
+        <v>-6.7220142999999996E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>3.5037643E-2</v>
+      </c>
+      <c r="B45">
+        <v>3.2721010000000002E-2</v>
+      </c>
+      <c r="C45">
+        <v>2.9895201999999999E-2</v>
+      </c>
+      <c r="D45">
+        <v>2.6388857000000002E-2</v>
+      </c>
+      <c r="E45">
+        <v>2.194693E-2</v>
+      </c>
+      <c r="F45">
+        <v>1.6186967E-2</v>
+      </c>
+      <c r="G45">
+        <v>8.5434229999999996E-3</v>
+      </c>
+      <c r="H45">
+        <v>-1.7636360000000001E-3</v>
+      </c>
+      <c r="I45">
+        <v>-1.5574367E-2</v>
+      </c>
+      <c r="J45">
+        <v>-3.3014723000000003E-2</v>
+      </c>
+      <c r="K45">
+        <v>-5.1850800000000002E-2</v>
+      </c>
+      <c r="L45">
+        <v>-6.7267157999999994E-2</v>
+      </c>
+      <c r="M45">
+        <v>-7.6027064000000005E-2</v>
+      </c>
+      <c r="N45">
+        <v>-7.9126097000000006E-2</v>
+      </c>
+      <c r="O45">
+        <v>-7.9087157000000005E-2</v>
+      </c>
+      <c r="P45">
+        <v>-7.7680601000000002E-2</v>
+      </c>
+      <c r="Q45">
+        <v>-7.5767010999999995E-2</v>
+      </c>
+      <c r="R45">
+        <v>-7.3693596E-2</v>
+      </c>
+      <c r="S45">
+        <v>-7.1573533999999994E-2</v>
+      </c>
+      <c r="T45">
+        <v>-6.9422590000000006E-2</v>
+      </c>
+      <c r="U45">
+        <v>-6.7220142999999996E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>3.5037643E-2</v>
+      </c>
+      <c r="B46">
+        <v>3.2721010000000002E-2</v>
+      </c>
+      <c r="C46">
+        <v>2.9895201999999999E-2</v>
+      </c>
+      <c r="D46">
+        <v>2.6388857000000002E-2</v>
+      </c>
+      <c r="E46">
+        <v>2.194693E-2</v>
+      </c>
+      <c r="F46">
+        <v>1.6186967E-2</v>
+      </c>
+      <c r="G46">
+        <v>8.5434229999999996E-3</v>
+      </c>
+      <c r="H46">
+        <v>-1.7636360000000001E-3</v>
+      </c>
+      <c r="I46">
+        <v>-1.5574367E-2</v>
+      </c>
+      <c r="J46">
+        <v>-3.3014723000000003E-2</v>
+      </c>
+      <c r="K46">
+        <v>-5.1850800000000002E-2</v>
+      </c>
+      <c r="L46">
+        <v>-6.7267157999999994E-2</v>
+      </c>
+      <c r="M46">
+        <v>-7.6027064000000005E-2</v>
+      </c>
+      <c r="N46">
+        <v>-7.9126097000000006E-2</v>
+      </c>
+      <c r="O46">
+        <v>-7.9087157000000005E-2</v>
+      </c>
+      <c r="P46">
+        <v>-7.7680601000000002E-2</v>
+      </c>
+      <c r="Q46">
+        <v>-7.5767010999999995E-2</v>
+      </c>
+      <c r="R46">
+        <v>-7.3693596E-2</v>
+      </c>
+      <c r="S46">
+        <v>-7.1573533999999994E-2</v>
+      </c>
+      <c r="T46">
+        <v>-6.9422590000000006E-2</v>
+      </c>
+      <c r="U46">
+        <v>-6.7220142999999996E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>3.5037643E-2</v>
+      </c>
+      <c r="B47">
+        <v>3.2721010000000002E-2</v>
+      </c>
+      <c r="C47">
+        <v>2.9895201999999999E-2</v>
+      </c>
+      <c r="D47">
+        <v>2.6388857000000002E-2</v>
+      </c>
+      <c r="E47">
+        <v>2.194693E-2</v>
+      </c>
+      <c r="F47">
+        <v>1.6186967E-2</v>
+      </c>
+      <c r="G47">
+        <v>8.5434229999999996E-3</v>
+      </c>
+      <c r="H47">
+        <v>-1.7636360000000001E-3</v>
+      </c>
+      <c r="I47">
+        <v>-1.5574367E-2</v>
+      </c>
+      <c r="J47">
+        <v>-3.3014723000000003E-2</v>
+      </c>
+      <c r="K47">
+        <v>-5.1850800000000002E-2</v>
+      </c>
+      <c r="L47">
+        <v>-6.7267157999999994E-2</v>
+      </c>
+      <c r="M47">
+        <v>-7.6027064000000005E-2</v>
+      </c>
+      <c r="N47">
+        <v>-7.9126097000000006E-2</v>
+      </c>
+      <c r="O47">
+        <v>-7.9087157000000005E-2</v>
+      </c>
+      <c r="P47">
+        <v>-7.7680601000000002E-2</v>
+      </c>
+      <c r="Q47">
+        <v>-7.5767010999999995E-2</v>
+      </c>
+      <c r="R47">
+        <v>-7.3693596E-2</v>
+      </c>
+      <c r="S47">
+        <v>-7.1573533999999994E-2</v>
+      </c>
+      <c r="T47">
+        <v>-6.9422590000000006E-2</v>
+      </c>
+      <c r="U47">
+        <v>-6.7220142999999996E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>3.5037643E-2</v>
+      </c>
+      <c r="B48">
+        <v>3.2721010000000002E-2</v>
+      </c>
+      <c r="C48">
+        <v>2.9895201999999999E-2</v>
+      </c>
+      <c r="D48">
+        <v>2.6388857000000002E-2</v>
+      </c>
+      <c r="E48">
+        <v>2.194693E-2</v>
+      </c>
+      <c r="F48">
+        <v>1.6186967E-2</v>
+      </c>
+      <c r="G48">
+        <v>8.5434229999999996E-3</v>
+      </c>
+      <c r="H48">
+        <v>-1.7636360000000001E-3</v>
+      </c>
+      <c r="I48">
+        <v>-1.5574367E-2</v>
+      </c>
+      <c r="J48">
+        <v>-3.3014723000000003E-2</v>
+      </c>
+      <c r="K48">
+        <v>-5.1850800000000002E-2</v>
+      </c>
+      <c r="L48">
+        <v>-6.7267157999999994E-2</v>
+      </c>
+      <c r="M48">
+        <v>-7.6027064000000005E-2</v>
+      </c>
+      <c r="N48">
+        <v>-7.9126097000000006E-2</v>
+      </c>
+      <c r="O48">
+        <v>-7.9087157000000005E-2</v>
+      </c>
+      <c r="P48">
+        <v>-7.7680601000000002E-2</v>
+      </c>
+      <c r="Q48">
+        <v>-7.5767010999999995E-2</v>
+      </c>
+      <c r="R48">
+        <v>-7.3693596E-2</v>
+      </c>
+      <c r="S48">
+        <v>-7.1573533999999994E-2</v>
+      </c>
+      <c r="T48">
+        <v>-6.9422590000000006E-2</v>
+      </c>
+      <c r="U48">
+        <v>-6.7220142999999996E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>3.5037643E-2</v>
+      </c>
+      <c r="B49">
+        <v>3.2721010000000002E-2</v>
+      </c>
+      <c r="C49">
+        <v>2.9895201999999999E-2</v>
+      </c>
+      <c r="D49">
+        <v>2.6388857000000002E-2</v>
+      </c>
+      <c r="E49">
+        <v>2.194693E-2</v>
+      </c>
+      <c r="F49">
+        <v>1.6186967E-2</v>
+      </c>
+      <c r="G49">
+        <v>8.5434229999999996E-3</v>
+      </c>
+      <c r="H49">
+        <v>-1.7636360000000001E-3</v>
+      </c>
+      <c r="I49">
+        <v>-1.5574367E-2</v>
+      </c>
+      <c r="J49">
+        <v>-3.3014723000000003E-2</v>
+      </c>
+      <c r="K49">
+        <v>-5.1850800000000002E-2</v>
+      </c>
+      <c r="L49">
+        <v>-6.7267157999999994E-2</v>
+      </c>
+      <c r="M49">
+        <v>-7.6027064000000005E-2</v>
+      </c>
+      <c r="N49">
+        <v>-7.9126097000000006E-2</v>
+      </c>
+      <c r="O49">
+        <v>-7.9087157000000005E-2</v>
+      </c>
+      <c r="P49">
+        <v>-7.7680601000000002E-2</v>
+      </c>
+      <c r="Q49">
+        <v>-7.5767010999999995E-2</v>
+      </c>
+      <c r="R49">
+        <v>-7.3693596E-2</v>
+      </c>
+      <c r="S49">
+        <v>-7.1573533999999994E-2</v>
+      </c>
+      <c r="T49">
+        <v>-6.9422590000000006E-2</v>
+      </c>
+      <c r="U49">
+        <v>-6.7220142999999996E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>3.5037643E-2</v>
+      </c>
+      <c r="B50">
+        <v>3.2721010000000002E-2</v>
+      </c>
+      <c r="C50">
+        <v>2.9895201999999999E-2</v>
+      </c>
+      <c r="D50">
+        <v>2.6388857000000002E-2</v>
+      </c>
+      <c r="E50">
+        <v>2.194693E-2</v>
+      </c>
+      <c r="F50">
+        <v>1.6186967E-2</v>
+      </c>
+      <c r="G50">
+        <v>8.5434229999999996E-3</v>
+      </c>
+      <c r="H50">
+        <v>-1.7636360000000001E-3</v>
+      </c>
+      <c r="I50">
+        <v>-1.5574367E-2</v>
+      </c>
+      <c r="J50">
+        <v>-3.3014723000000003E-2</v>
+      </c>
+      <c r="K50">
+        <v>-5.1850800000000002E-2</v>
+      </c>
+      <c r="L50">
+        <v>-6.7267157999999994E-2</v>
+      </c>
+      <c r="M50">
+        <v>-7.6027064000000005E-2</v>
+      </c>
+      <c r="N50">
+        <v>-7.9126097000000006E-2</v>
+      </c>
+      <c r="O50">
+        <v>-7.9087157000000005E-2</v>
+      </c>
+      <c r="P50">
+        <v>-7.7680601000000002E-2</v>
+      </c>
+      <c r="Q50">
+        <v>-7.5767010999999995E-2</v>
+      </c>
+      <c r="R50">
+        <v>-7.3693596E-2</v>
+      </c>
+      <c r="S50">
+        <v>-7.1573533999999994E-2</v>
+      </c>
+      <c r="T50">
+        <v>-6.9422590000000006E-2</v>
+      </c>
+      <c r="U50">
+        <v>-6.7220142999999996E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>3.5037643E-2</v>
+      </c>
+      <c r="B51">
+        <v>3.2721010000000002E-2</v>
+      </c>
+      <c r="C51">
+        <v>2.9895201999999999E-2</v>
+      </c>
+      <c r="D51">
+        <v>2.6388857000000002E-2</v>
+      </c>
+      <c r="E51">
+        <v>2.194693E-2</v>
+      </c>
+      <c r="F51">
+        <v>1.6186967E-2</v>
+      </c>
+      <c r="G51">
+        <v>8.5434229999999996E-3</v>
+      </c>
+      <c r="H51">
+        <v>-1.7636360000000001E-3</v>
+      </c>
+      <c r="I51">
+        <v>-1.5574367E-2</v>
+      </c>
+      <c r="J51">
+        <v>-3.3014723000000003E-2</v>
+      </c>
+      <c r="K51">
+        <v>-5.1850800000000002E-2</v>
+      </c>
+      <c r="L51">
+        <v>-6.7267157999999994E-2</v>
+      </c>
+      <c r="M51">
+        <v>-7.6027064000000005E-2</v>
+      </c>
+      <c r="N51">
+        <v>-7.9126097000000006E-2</v>
+      </c>
+      <c r="O51">
+        <v>-7.9087157000000005E-2</v>
+      </c>
+      <c r="P51">
+        <v>-7.7680601000000002E-2</v>
+      </c>
+      <c r="Q51">
+        <v>-7.5767010999999995E-2</v>
+      </c>
+      <c r="R51">
+        <v>-7.3693596E-2</v>
+      </c>
+      <c r="S51">
+        <v>-7.1573533999999994E-2</v>
+      </c>
+      <c r="T51">
+        <v>-6.9422590000000006E-2</v>
+      </c>
+      <c r="U51">
+        <v>-6.7220142999999996E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>3.5037643E-2</v>
+      </c>
+      <c r="B52">
+        <v>3.2721010000000002E-2</v>
+      </c>
+      <c r="C52">
+        <v>2.9895201999999999E-2</v>
+      </c>
+      <c r="D52">
+        <v>2.6388857000000002E-2</v>
+      </c>
+      <c r="E52">
+        <v>2.194693E-2</v>
+      </c>
+      <c r="F52">
+        <v>1.6186967E-2</v>
+      </c>
+      <c r="G52">
+        <v>8.5434229999999996E-3</v>
+      </c>
+      <c r="H52">
+        <v>-1.7636360000000001E-3</v>
+      </c>
+      <c r="I52">
+        <v>-1.5574367E-2</v>
+      </c>
+      <c r="J52">
+        <v>-3.3014723000000003E-2</v>
+      </c>
+      <c r="K52">
+        <v>-5.1850800000000002E-2</v>
+      </c>
+      <c r="L52">
+        <v>-6.7267157999999994E-2</v>
+      </c>
+      <c r="M52">
+        <v>-7.6027064000000005E-2</v>
+      </c>
+      <c r="N52">
+        <v>-7.9126097000000006E-2</v>
+      </c>
+      <c r="O52">
+        <v>-7.9087157000000005E-2</v>
+      </c>
+      <c r="P52">
+        <v>-7.7680601000000002E-2</v>
+      </c>
+      <c r="Q52">
+        <v>-7.5767010999999995E-2</v>
+      </c>
+      <c r="R52">
+        <v>-7.3693596E-2</v>
+      </c>
+      <c r="S52">
+        <v>-7.1573533999999994E-2</v>
+      </c>
+      <c r="T52">
+        <v>-6.9422590000000006E-2</v>
+      </c>
+      <c r="U52">
+        <v>-6.7220142999999996E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>3.5037643E-2</v>
+      </c>
+      <c r="B53">
+        <v>3.2721010000000002E-2</v>
+      </c>
+      <c r="C53">
+        <v>2.9895201999999999E-2</v>
+      </c>
+      <c r="D53">
+        <v>2.6388857000000002E-2</v>
+      </c>
+      <c r="E53">
+        <v>2.194693E-2</v>
+      </c>
+      <c r="F53">
+        <v>1.6186967E-2</v>
+      </c>
+      <c r="G53">
+        <v>8.5434229999999996E-3</v>
+      </c>
+      <c r="H53">
+        <v>-1.7636360000000001E-3</v>
+      </c>
+      <c r="I53">
+        <v>-1.5574367E-2</v>
+      </c>
+      <c r="J53">
+        <v>-3.3014723000000003E-2</v>
+      </c>
+      <c r="K53">
+        <v>-5.1850800000000002E-2</v>
+      </c>
+      <c r="L53">
+        <v>-6.7267157999999994E-2</v>
+      </c>
+      <c r="M53">
+        <v>-7.6027064000000005E-2</v>
+      </c>
+      <c r="N53">
+        <v>-7.9126097000000006E-2</v>
+      </c>
+      <c r="O53">
+        <v>-7.9087157000000005E-2</v>
+      </c>
+      <c r="P53">
+        <v>-7.7680601000000002E-2</v>
+      </c>
+      <c r="Q53">
+        <v>-7.5767010999999995E-2</v>
+      </c>
+      <c r="R53">
+        <v>-7.3693596E-2</v>
+      </c>
+      <c r="S53">
+        <v>-7.1573533999999994E-2</v>
+      </c>
+      <c r="T53">
+        <v>-6.9422590000000006E-2</v>
+      </c>
+      <c r="U53">
         <v>-6.7220142999999996E-2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>